--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="100">
   <si>
     <t>高三</t>
   </si>
@@ -47,7 +47,13 @@
     <t>星期日</t>
   </si>
   <si>
+    <t>8:25~9:05</t>
+  </si>
+  <si>
     <t>開學日</t>
+  </si>
+  <si>
+    <t>9:15~10:05</t>
   </si>
   <si>
     <t>社會創新(一)
@@ -57,7 +63,25 @@
     <t>畢業專題(一)</t>
   </si>
   <si>
+    <t>10:15~11:05</t>
+  </si>
+  <si>
     <t>跨校遠距選修</t>
+  </si>
+  <si>
+    <t>11:15~11:55</t>
+  </si>
+  <si>
+    <t>13:25~14:05</t>
+  </si>
+  <si>
+    <t>14:15~15:05</t>
+  </si>
+  <si>
+    <t>15:15~16:05</t>
+  </si>
+  <si>
+    <t>16:15~4:55</t>
   </si>
   <si>
     <t>備註</t>
@@ -541,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -567,6 +591,9 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,11 +610,11 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1008,132 +1035,132 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="19" t="s">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="10">
-        <v>8.0</v>
+      <c r="A13" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1145,7 +1172,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8">
         <v>45908.0</v>
@@ -1194,164 +1221,164 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="10">
-        <v>2.0</v>
+      <c r="A19" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21">
-      <c r="A21" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22">
-      <c r="A22" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23">
-      <c r="A23" s="10">
-        <v>6.0</v>
+      <c r="A23" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="A25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8">
         <v>45915.0</v>
@@ -1400,153 +1427,153 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
+      <c r="A30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>23</v>
+      <c r="A31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32">
-      <c r="A32" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="37" t="s">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="D35" s="13"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="D35" s="12"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="34" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="F36" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37">
-      <c r="A37" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B37" s="12"/>
+      <c r="A37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B40" s="8">
         <v>45922.0</v>
@@ -1595,144 +1622,144 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
+      <c r="A42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="12"/>
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
+      <c r="E43" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44">
-      <c r="A44" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="34" t="s">
+      <c r="A44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
+      <c r="D44" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45">
-      <c r="A45" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
+      <c r="A45" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46">
-      <c r="A46" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
+      <c r="A46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47">
-      <c r="A47" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
+      <c r="A47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
+      <c r="A48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="29"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B52" s="8">
         <v>45929.0</v>
@@ -1781,146 +1808,146 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
+      <c r="A54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
+      <c r="A55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56">
-      <c r="A56" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
+      <c r="A56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
     </row>
     <row r="57">
-      <c r="A57" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
+      <c r="A57" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58">
-      <c r="A58" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
+      <c r="A58" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59">
-      <c r="A59" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B59" s="15"/>
+      <c r="A59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="16"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="36"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60">
-      <c r="A60" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
+      <c r="A60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61">
-      <c r="A61" s="10">
-        <v>8.0</v>
+      <c r="A61" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="28"/>
+        <v>58</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="29"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B64" s="8">
         <v>45936.0</v>
@@ -1969,131 +1996,131 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="14"/>
+      <c r="A66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="15"/>
     </row>
     <row r="67">
-      <c r="A67" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="17"/>
-      <c r="H67" s="18"/>
+      <c r="A67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="18"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68">
-      <c r="A68" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="H68" s="18"/>
+      <c r="A68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="17"/>
-      <c r="H69" s="18"/>
+      <c r="A69" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="18"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70">
-      <c r="A70" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="17"/>
-      <c r="H70" s="18"/>
+      <c r="A70" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="18"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71">
-      <c r="A71" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="17"/>
-      <c r="H71" s="18"/>
+      <c r="A71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="18"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72">
-      <c r="A72" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="17"/>
-      <c r="H72" s="18"/>
+      <c r="A72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="18"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73">
-      <c r="A73" s="10">
-        <v>8.0</v>
+      <c r="A73" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B73" s="9"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="26"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G74" s="28"/>
+      <c r="F74" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" s="29"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B76" s="8">
         <v>45943.0</v>
@@ -2142,148 +2169,148 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="29" t="s">
+      <c r="A78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="37"/>
+      <c r="E79" s="9"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="9"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="18"/>
+      <c r="D80" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81">
-      <c r="A81" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="18"/>
+      <c r="A81" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82">
-      <c r="A82" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="18"/>
+      <c r="A82" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83">
-      <c r="A83" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B83" s="12"/>
+      <c r="A83" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="13"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="12"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="18"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="18"/>
+      <c r="A84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
     </row>
     <row r="85">
-      <c r="A85" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
+      <c r="A85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="29"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B88" s="8">
         <v>45950.0</v>
@@ -2332,150 +2359,150 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
+      <c r="A90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F90" s="43"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
     </row>
     <row r="91">
-      <c r="A91" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="16" t="s">
-        <v>58</v>
+      <c r="A91" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="54"/>
+      <c r="C91" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="18"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
     </row>
     <row r="92">
-      <c r="A92" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="37" t="s">
+      <c r="A92" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E92" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="19"/>
     </row>
     <row r="93">
-      <c r="A93" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="18"/>
+      <c r="A93" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
     </row>
     <row r="94">
-      <c r="A94" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" s="54" t="s">
+      <c r="A94" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="16"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="19"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="18"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
     </row>
     <row r="96">
-      <c r="A96" s="10">
-        <v>7.0</v>
+      <c r="A96" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B96" s="9"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="18"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
     </row>
     <row r="97">
-      <c r="A97" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="55"/>
+      <c r="A97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="12"/>
+      <c r="E97" s="13"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G98" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="29"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B100" s="8">
         <v>45957.0</v>
@@ -2524,144 +2551,144 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
+      <c r="A102" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="15"/>
     </row>
     <row r="103">
-      <c r="A103" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="18"/>
+      <c r="A103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="19"/>
     </row>
     <row r="104">
-      <c r="A104" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="17"/>
-      <c r="H104" s="18"/>
+      <c r="A104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="18"/>
+      <c r="H104" s="19"/>
     </row>
     <row r="105">
-      <c r="A105" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="18"/>
+      <c r="A105" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="19"/>
     </row>
     <row r="106">
-      <c r="A106" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B106" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="18"/>
+      <c r="A106" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="19"/>
     </row>
     <row r="107">
-      <c r="A107" s="10">
-        <v>6.0</v>
+      <c r="A107" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="18"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="19"/>
     </row>
     <row r="108">
-      <c r="A108" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="18"/>
+      <c r="A108" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="19"/>
     </row>
     <row r="109">
-      <c r="A109" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="36"/>
+      <c r="A109" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="26"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27"/>
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G110" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G110" s="29"/>
       <c r="H110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B112" s="8">
         <v>45964.0</v>
@@ -2710,146 +2737,146 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D114" s="29" t="s">
+      <c r="A114" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" s="13"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="19"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="18"/>
+      <c r="H116" s="19"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="45"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="19"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="25"/>
+      <c r="C118" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="25"/>
+      <c r="E118" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F118" s="25"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="19"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="19"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" s="13"/>
-      <c r="H114" s="14"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F115" s="12"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="18"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="17"/>
-      <c r="H116" s="18"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B117" s="44"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="18"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" s="24"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="18"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="18"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="18"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="26"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="29"/>
       <c r="H122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="36"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B124" s="8">
         <v>45971.0</v>
@@ -2898,154 +2925,154 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B126" s="36"/>
-      <c r="C126" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F126" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="G126" s="13"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="37"/>
+      <c r="C126" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="15"/>
     </row>
     <row r="127">
-      <c r="A127" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>65</v>
+      <c r="A127" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C127" s="9"/>
-      <c r="D127" s="34" t="s">
-        <v>27</v>
+      <c r="D127" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="19"/>
     </row>
     <row r="128">
-      <c r="A128" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="17"/>
-      <c r="H128" s="18"/>
+      <c r="A128" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="16"/>
+      <c r="C128" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="18"/>
+      <c r="H128" s="19"/>
     </row>
     <row r="129">
-      <c r="A129" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="18"/>
+      <c r="A129" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="19"/>
     </row>
     <row r="130">
-      <c r="A130" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" s="24"/>
-      <c r="E130" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F130" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" s="17"/>
-      <c r="H130" s="18"/>
+      <c r="A130" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="16"/>
+      <c r="C130" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="18"/>
+      <c r="H130" s="19"/>
     </row>
     <row r="131">
-      <c r="A131" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B131" s="15"/>
+      <c r="A131" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="16"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="12"/>
+      <c r="D131" s="13"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="18"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="19"/>
     </row>
     <row r="132">
-      <c r="A132" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="18"/>
+      <c r="A132" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="16"/>
+      <c r="C132" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F132" s="13"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="19"/>
     </row>
     <row r="133">
-      <c r="A133" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="26"/>
+      <c r="A133" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="29"/>
       <c r="H134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B136" s="8">
         <v>45978.0</v>
@@ -3094,152 +3121,152 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F138" s="12"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="14"/>
+      <c r="A138" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" s="13"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="15"/>
     </row>
     <row r="139">
-      <c r="A139" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B139" s="15"/>
+      <c r="A139" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="16"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="31" t="s">
-        <v>27</v>
+      <c r="D139" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="18"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="19"/>
     </row>
     <row r="140">
-      <c r="A140" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="17"/>
-      <c r="H140" s="18"/>
+      <c r="A140" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="18"/>
+      <c r="H140" s="19"/>
     </row>
     <row r="141">
-      <c r="A141" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B141" s="15"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="18"/>
+      <c r="A141" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" s="16"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="19"/>
     </row>
     <row r="142">
-      <c r="A142" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B142" s="15"/>
-      <c r="C142" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F142" s="24"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="18"/>
+      <c r="A142" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="16"/>
+      <c r="C142" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F142" s="25"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="19"/>
     </row>
     <row r="143">
-      <c r="A143" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B143" s="15"/>
+      <c r="A143" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="16"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="15"/>
+      <c r="D143" s="16"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="18"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="19"/>
     </row>
     <row r="144">
-      <c r="A144" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="18"/>
+      <c r="A144" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="16"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="19"/>
     </row>
     <row r="145">
-      <c r="A145" s="10">
-        <v>8.0</v>
+      <c r="A145" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B145" s="9"/>
-      <c r="C145" s="12"/>
+      <c r="C145" s="13"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="26"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="27"/>
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
       <c r="D146" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F146" s="12"/>
-      <c r="G146" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="F146" s="13"/>
+      <c r="G146" s="29"/>
       <c r="H146" s="3"/>
     </row>
     <row r="147">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="37"/>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B148" s="8">
         <v>45985.0</v>
@@ -3288,149 +3315,149 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D150" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F150" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" s="13"/>
-      <c r="H150" s="14"/>
+      <c r="A150" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F150" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G150" s="14"/>
+      <c r="H150" s="15"/>
     </row>
     <row r="151">
-      <c r="A151" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>58</v>
+      <c r="A151" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="18"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="19"/>
     </row>
     <row r="152">
-      <c r="A152" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="17"/>
-      <c r="H152" s="18"/>
+      <c r="A152" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E152" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="18"/>
+      <c r="H152" s="19"/>
     </row>
     <row r="153">
-      <c r="A153" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B153" s="21"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="38"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="18"/>
+      <c r="A153" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="19"/>
     </row>
     <row r="154">
-      <c r="A154" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B154" s="24"/>
-      <c r="C154" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="18"/>
+      <c r="A154" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="25"/>
+      <c r="C154" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="19"/>
     </row>
     <row r="155">
-      <c r="A155" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="18"/>
+      <c r="A155" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="19"/>
     </row>
     <row r="156">
-      <c r="A156" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="18"/>
+      <c r="A156" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="19"/>
     </row>
     <row r="157">
-      <c r="A157" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="26"/>
+      <c r="A157" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="27"/>
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="29"/>
       <c r="H158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="37"/>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B160" s="8">
         <v>45992.0</v>
@@ -3479,147 +3506,147 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F162" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" s="13"/>
-      <c r="H162" s="14"/>
+      <c r="A162" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" s="14"/>
+      <c r="H162" s="15"/>
     </row>
     <row r="163">
-      <c r="A163" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B163" s="16" t="s">
+      <c r="A163" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C163" s="15"/>
+      <c r="B163" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="16"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="18"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="19"/>
     </row>
     <row r="164">
-      <c r="A164" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" s="17"/>
-      <c r="H164" s="18"/>
+      <c r="A164" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E164" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="18"/>
+      <c r="H164" s="19"/>
     </row>
     <row r="165">
-      <c r="A165" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B165" s="21"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="18"/>
+      <c r="A165" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="22"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="19"/>
     </row>
     <row r="166">
-      <c r="A166" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B166" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C166" s="15"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="18"/>
+      <c r="A166" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="19"/>
     </row>
     <row r="167">
-      <c r="A167" s="10">
-        <v>6.0</v>
+      <c r="A167" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B167" s="9"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="18"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="19"/>
     </row>
     <row r="168">
-      <c r="A168" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" s="15"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="18"/>
+      <c r="A168" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168" s="16"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="19"/>
     </row>
     <row r="169">
-      <c r="A169" s="10">
-        <v>8.0</v>
+      <c r="A169" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="26"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="27"/>
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B170" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B170" s="13"/>
       <c r="C170" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="29"/>
       <c r="H170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="36"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B172" s="8">
         <v>45999.0</v>
@@ -3668,148 +3695,148 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B174" s="31" t="s">
+      <c r="A174" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" s="13"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="19"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="18"/>
+      <c r="H176" s="19"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="19"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C174" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F174" s="12"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="14"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B175" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="18"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" s="17"/>
-      <c r="H176" s="18"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B177" s="21"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="18"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F178" s="24"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="18"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F178" s="25"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="19"/>
     </row>
     <row r="179">
-      <c r="A179" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B179" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
+      <c r="A179" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="18"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="19"/>
     </row>
     <row r="180">
-      <c r="A180" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B180" s="12"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="18"/>
+      <c r="A180" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" s="13"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="19"/>
     </row>
     <row r="181">
-      <c r="A181" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B181" s="12"/>
+      <c r="A181" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" s="13"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="26"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="27"/>
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="29"/>
       <c r="H182" s="3"/>
     </row>
     <row r="183">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="36"/>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="37"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="37"/>
+      <c r="H183" s="37"/>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B184" s="8">
         <v>46006.0</v>
@@ -3858,147 +3885,147 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B186" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C186" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F186" s="12"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="14"/>
+      <c r="A186" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="13"/>
+      <c r="E186" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" s="13"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="15"/>
     </row>
     <row r="187">
-      <c r="A187" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C187" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D187" s="12"/>
+      <c r="A187" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" s="13"/>
       <c r="E187" s="9"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="18"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="19"/>
     </row>
     <row r="188">
-      <c r="A188" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" s="17"/>
-      <c r="H188" s="18"/>
+      <c r="A188" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="13"/>
+      <c r="C188" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="13"/>
+      <c r="E188" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" s="18"/>
+      <c r="H188" s="19"/>
     </row>
     <row r="189">
-      <c r="A189" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B189" s="44"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="61"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="18"/>
+      <c r="A189" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="45"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="62"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="19"/>
     </row>
     <row r="190">
-      <c r="A190" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B190" s="24"/>
-      <c r="C190" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D190" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E190" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F190" s="24"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="18"/>
+      <c r="A190" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="25"/>
+      <c r="C190" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D190" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F190" s="25"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="19"/>
     </row>
     <row r="191">
-      <c r="A191" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B191" s="12"/>
-      <c r="D191" s="15"/>
+      <c r="A191" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" s="13"/>
+      <c r="D191" s="16"/>
       <c r="E191" s="9"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="18"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="19"/>
     </row>
     <row r="192">
-      <c r="A192" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B192" s="12"/>
-      <c r="C192" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" s="15"/>
-      <c r="E192" s="34" t="s">
+      <c r="A192" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" s="13"/>
+      <c r="C192" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F192" s="12"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="18"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F192" s="13"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="19"/>
     </row>
     <row r="193">
-      <c r="A193" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
+      <c r="A193" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
       <c r="D193" s="9"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="26"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="27"/>
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="29"/>
       <c r="H194" s="3"/>
     </row>
     <row r="195">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="36"/>
-      <c r="E195" s="36"/>
-      <c r="F195" s="36"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="37"/>
+      <c r="H195" s="37"/>
     </row>
     <row r="196">
       <c r="A196" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B196" s="8">
         <v>46013.0</v>
@@ -4047,149 +4074,149 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B198" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C198" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D198" s="29" t="s">
+      <c r="A198" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E198" s="43"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="15"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D199" s="9"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="19"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B200" s="13"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E200" s="16"/>
+      <c r="F200" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="18"/>
+      <c r="H200" s="19"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="19"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D202" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E202" s="16"/>
+      <c r="F202" s="25"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="19"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="18"/>
+      <c r="H203" s="19"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" s="13"/>
+      <c r="C204" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="19"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E198" s="42"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="14"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D199" s="9"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="18"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B200" s="12"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E200" s="15"/>
-      <c r="F200" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" s="17"/>
-      <c r="H200" s="18"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B201" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="18"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B202" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D202" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E202" s="15"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="18"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="C203" s="9"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="18"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B204" s="12"/>
-      <c r="C204" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="18"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B205" s="12"/>
-      <c r="C205" s="36"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="37"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="25"/>
-      <c r="H205" s="26"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="27"/>
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
       <c r="E206" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F206" s="12"/>
-      <c r="G206" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="F206" s="13"/>
+      <c r="G206" s="29"/>
       <c r="H206" s="3"/>
     </row>
     <row r="207">
-      <c r="A207" s="36"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="36"/>
-      <c r="D207" s="36"/>
-      <c r="E207" s="36"/>
-      <c r="F207" s="36"/>
-      <c r="G207" s="36"/>
-      <c r="H207" s="36"/>
+      <c r="A207" s="37"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="37"/>
     </row>
     <row r="208">
       <c r="A208" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B208" s="8">
         <v>46020.0</v>
@@ -4238,142 +4265,142 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B210" s="12"/>
-      <c r="C210" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D210" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E210" s="42"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="14"/>
+      <c r="A210" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" s="13"/>
+      <c r="C210" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E210" s="43"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="15"/>
     </row>
     <row r="211">
-      <c r="A211" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B211" s="16" t="s">
+      <c r="A211" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C211" s="31" t="s">
-        <v>27</v>
+      <c r="B211" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="D211" s="9"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="18"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="19"/>
     </row>
     <row r="212">
-      <c r="A212" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B212" s="15"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E212" s="15"/>
-      <c r="F212" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" s="17"/>
-      <c r="H212" s="18"/>
+      <c r="A212" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" s="16"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E212" s="16"/>
+      <c r="F212" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="18"/>
+      <c r="H212" s="19"/>
     </row>
     <row r="213">
-      <c r="A213" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B213" s="21"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="21"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="18"/>
+      <c r="A213" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="22"/>
+      <c r="C213" s="45"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="19"/>
     </row>
     <row r="214">
-      <c r="A214" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B214" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C214" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D214" s="24"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="24"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="18"/>
+      <c r="A214" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C214" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D214" s="25"/>
+      <c r="E214" s="16"/>
+      <c r="F214" s="25"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="19"/>
     </row>
     <row r="215">
-      <c r="A215" s="10">
-        <v>6.0</v>
+      <c r="A215" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B215" s="9"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="18"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="18"/>
+      <c r="H215" s="19"/>
     </row>
     <row r="216">
-      <c r="A216" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B216" s="55"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="18"/>
+      <c r="A216" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="56"/>
+      <c r="C216" s="16"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="18"/>
+      <c r="H216" s="19"/>
     </row>
     <row r="217">
-      <c r="A217" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B217" s="12"/>
+      <c r="A217" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="13"/>
       <c r="C217" s="9"/>
-      <c r="D217" s="12"/>
+      <c r="D217" s="13"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="25"/>
-      <c r="H217" s="26"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="27"/>
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B218" s="12"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
-      <c r="G218" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="29"/>
       <c r="H218" s="3"/>
     </row>
     <row r="219">
-      <c r="A219" s="36"/>
-      <c r="B219" s="36"/>
-      <c r="C219" s="36"/>
-      <c r="D219" s="36"/>
-      <c r="E219" s="36"/>
-      <c r="F219" s="36"/>
-      <c r="G219" s="36"/>
-      <c r="H219" s="36"/>
+      <c r="A219" s="37"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="37"/>
+      <c r="E219" s="37"/>
+      <c r="F219" s="37"/>
+      <c r="G219" s="37"/>
+      <c r="H219" s="37"/>
     </row>
     <row r="220">
       <c r="A220" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B220" s="8">
         <v>46027.0</v>
@@ -4422,137 +4449,137 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B222" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C222" s="12"/>
-      <c r="D222" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="14"/>
+      <c r="A222" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C222" s="13"/>
+      <c r="D222" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="15"/>
     </row>
     <row r="223">
-      <c r="A223" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C223" s="12"/>
-      <c r="D223" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="18"/>
+      <c r="A223" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="13"/>
+      <c r="D223" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="18"/>
+      <c r="H223" s="19"/>
     </row>
     <row r="224">
-      <c r="A224" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F224" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" s="17"/>
-      <c r="H224" s="18"/>
+      <c r="A224" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E224" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G224" s="18"/>
+      <c r="H224" s="19"/>
     </row>
     <row r="225">
-      <c r="A225" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B225" s="44"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="21"/>
-      <c r="E225" s="21"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="18"/>
+      <c r="A225" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" s="45"/>
+      <c r="C225" s="45"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="18"/>
+      <c r="H225" s="19"/>
     </row>
     <row r="226">
-      <c r="A226" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B226" s="24"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="24"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="24"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="18"/>
+      <c r="A226" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="25"/>
+      <c r="E226" s="25"/>
+      <c r="F226" s="25"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="19"/>
     </row>
     <row r="227">
-      <c r="A227" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="18"/>
+      <c r="A227" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="18"/>
+      <c r="H227" s="19"/>
     </row>
     <row r="228">
-      <c r="A228" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="18"/>
+      <c r="A228" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="19"/>
     </row>
     <row r="229">
-      <c r="A229" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="25"/>
-      <c r="H229" s="26"/>
+      <c r="A229" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="27"/>
     </row>
     <row r="230">
       <c r="A230" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="29"/>
       <c r="H230" s="3"/>
     </row>
     <row r="231">
-      <c r="A231" s="36"/>
-      <c r="B231" s="36"/>
-      <c r="C231" s="36"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="36"/>
-      <c r="F231" s="36"/>
-      <c r="G231" s="36"/>
-      <c r="H231" s="36"/>
+      <c r="A231" s="37"/>
+      <c r="B231" s="37"/>
+      <c r="C231" s="37"/>
+      <c r="D231" s="37"/>
+      <c r="E231" s="37"/>
+      <c r="F231" s="37"/>
+      <c r="G231" s="37"/>
+      <c r="H231" s="37"/>
     </row>
     <row r="232">
       <c r="A232" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B232" s="8">
         <v>46034.0</v>
@@ -4601,136 +4628,136 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="H234" s="14"/>
+      <c r="A234" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H234" s="15"/>
     </row>
     <row r="235">
-      <c r="A235" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="18"/>
+      <c r="A235" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="19"/>
     </row>
     <row r="236">
-      <c r="A236" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F236" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" s="17"/>
-      <c r="H236" s="18"/>
+      <c r="A236" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G236" s="18"/>
+      <c r="H236" s="19"/>
     </row>
     <row r="237">
-      <c r="A237" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B237" s="44"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="44"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="21"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="18"/>
+      <c r="A237" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" s="45"/>
+      <c r="C237" s="45"/>
+      <c r="D237" s="45"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="19"/>
     </row>
     <row r="238">
-      <c r="A238" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B238" s="24"/>
-      <c r="C238" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D238" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="18"/>
+      <c r="A238" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="25"/>
+      <c r="C238" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D238" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238" s="25"/>
+      <c r="F238" s="25"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="19"/>
     </row>
     <row r="239">
-      <c r="A239" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B239" s="12"/>
+      <c r="A239" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" s="13"/>
       <c r="C239" s="9"/>
-      <c r="D239" s="15"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="18"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="19"/>
     </row>
     <row r="240">
-      <c r="A240" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="15"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="12"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="18"/>
+      <c r="A240" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="19"/>
     </row>
     <row r="241">
-      <c r="A241" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
+      <c r="A241" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
       <c r="D241" s="9"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="25"/>
-      <c r="H241" s="26"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="26"/>
+      <c r="H241" s="27"/>
     </row>
     <row r="242">
       <c r="A242" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="29"/>
       <c r="H242" s="3"/>
     </row>
     <row r="243">
-      <c r="A243" s="36"/>
-      <c r="B243" s="36"/>
-      <c r="C243" s="36"/>
-      <c r="D243" s="36"/>
-      <c r="E243" s="36"/>
-      <c r="F243" s="36"/>
-      <c r="G243" s="36"/>
-      <c r="H243" s="36"/>
+      <c r="A243" s="37"/>
+      <c r="B243" s="37"/>
+      <c r="C243" s="37"/>
+      <c r="D243" s="37"/>
+      <c r="E243" s="37"/>
+      <c r="F243" s="37"/>
+      <c r="G243" s="37"/>
+      <c r="H243" s="37"/>
     </row>
     <row r="244">
       <c r="A244" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B244" s="8">
         <v>46041.0</v>
@@ -4779,121 +4806,121 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B246" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D246" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E246" s="14"/>
-      <c r="F246" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="G246" s="13"/>
-      <c r="H246" s="14"/>
+      <c r="A246" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D246" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" s="15"/>
+      <c r="F246" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="G246" s="14"/>
+      <c r="H246" s="15"/>
     </row>
     <row r="247">
-      <c r="A247" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B247" s="15"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="18"/>
+      <c r="A247" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="16"/>
+      <c r="C247" s="16"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="16"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="19"/>
     </row>
     <row r="248">
-      <c r="A248" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B248" s="15"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="18"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="18"/>
+      <c r="A248" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="16"/>
+      <c r="G248" s="18"/>
+      <c r="H248" s="19"/>
     </row>
     <row r="249">
-      <c r="A249" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B249" s="15"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="18"/>
+      <c r="A249" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249" s="16"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="16"/>
+      <c r="G249" s="18"/>
+      <c r="H249" s="19"/>
     </row>
     <row r="250">
-      <c r="A250" s="22">
-        <v>5.0</v>
-      </c>
-      <c r="B250" s="15"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="18"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="18"/>
+      <c r="A250" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" s="16"/>
+      <c r="C250" s="16"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="16"/>
+      <c r="G250" s="18"/>
+      <c r="H250" s="19"/>
     </row>
     <row r="251">
-      <c r="A251" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B251" s="15"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="18"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="18"/>
+      <c r="A251" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="16"/>
+      <c r="G251" s="18"/>
+      <c r="H251" s="19"/>
     </row>
     <row r="252">
-      <c r="A252" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B252" s="15"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="18"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="18"/>
+      <c r="A252" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="16"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="19"/>
     </row>
     <row r="253">
-      <c r="A253" s="10">
-        <v>8.0</v>
+      <c r="A253" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
-      <c r="D253" s="25"/>
-      <c r="E253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="27"/>
       <c r="F253" s="9"/>
-      <c r="G253" s="25"/>
-      <c r="H253" s="26"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="27"/>
     </row>
     <row r="254">
       <c r="A254" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B254" s="12"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="27" t="s">
-        <v>91</v>
+        <v>23</v>
+      </c>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="E254" s="3"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="28"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="29"/>
       <c r="H254" s="3"/>
     </row>
   </sheetData>
